--- a/AccessibleDashboardData/2021-04-11.xlsx
+++ b/AccessibleDashboardData/2021-04-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A688181B-784E-46EE-8F09-5627D0359CCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1FA73978-1047-4C25-8950-EF88C06F83FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7900,8 +7900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28948E-8042-4C2A-B858-5BDBD060C40E}">
   <dimension ref="A1:B376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D371" sqref="D371"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10896,7 +10896,7 @@
         <v>669</v>
       </c>
       <c r="B375">
-        <v>2822</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
@@ -10904,7 +10904,7 @@
         <v>670</v>
       </c>
       <c r="B376">
-        <v>2804</v>
+        <v>2822</v>
       </c>
     </row>
   </sheetData>
